--- a/docs/PTA2_DDC_100/PTA2_DDC_100_05.08.24_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731787270.8261888</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731787272.0936546</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787270.8261888.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787272.0936546.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>279.2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731787272.9688838</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731787275.4596632</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787272.9688838.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731787275.4596632.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.58</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.99</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.410000000000025</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731787278.366616</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731787278.366616.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731787278.366616.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.31</v>
       </c>
-      <c r="J5" t="n">
-        <v>277.31</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>275.69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-1.620000000000005</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731787281.9164886</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731787283.812238</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787281.9164886.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731787283.812238.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>127.7</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>127.98</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -739,95 +779,107 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731787288.321311</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731787288.321311.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731787288.321311.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>127.59</v>
       </c>
-      <c r="J7" t="n">
-        <v>127.59</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>127.48</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1099999999999994</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731787291.7560523</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731787292.8013742</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787291.7560523.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787292.8013742.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6389.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6426.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>37</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -835,51 +887,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731787293.485087</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731787296.4804392</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787293.485087.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731787296.4804392.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6438.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6436</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>2.5</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -887,95 +945,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731787296.700795</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731787296.700795.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731787296.700795.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6425.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>6425.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6394.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-31</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731787300.4680417</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731787301.370752</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787300.4680417.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787301.370752.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>496.25</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>496.2</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -983,51 +1053,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731787301.986831</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731787304.3860865</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787301.986831.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731787304.3860865.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>497.55</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>497.3</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.25</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1035,95 +1111,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731787304.701376</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731787304.701376.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731787304.701376.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>496.6</v>
       </c>
-      <c r="J13" t="n">
-        <v>496.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>492.9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-3.700000000000045</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731787308.578371</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731787310.169539</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787308.578371.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787310.169539.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>223.52</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>224.2</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.6799999999999784</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1131,51 +1219,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731787310.4760425</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731787312.0490282</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787310.4760425.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731787312.0490282.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>224.78</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>224.59</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1183,95 +1277,107 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731787313.628173</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731787313.628173.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731787313.628173.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>224.2</v>
       </c>
-      <c r="J16" t="n">
-        <v>224.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>223.39</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.8100000000000023</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731787315.408499</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731787316.7039874</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787315.408499.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787316.7039874.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1007.8</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1005.2</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>2.599999999999909</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1279,51 +1385,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731787317.6138747</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731787318.6092067</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787317.6138747.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787318.6092067.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1001.8</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1004.4</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>2.600000000000023</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1331,51 +1443,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731787319.1680417</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731787321.51709</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787319.1680417.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731787321.51709.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1008</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1007.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1383,95 +1501,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731787321.9126759</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731787321.9126759.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731787321.9126759.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1005.2</v>
       </c>
-      <c r="J20" t="n">
-        <v>1005.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1004.8</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.4000000000000909</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731787330.9838924</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731787331.5539613</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787330.9838924.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787331.5539613.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>124.02</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>124.34</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3200000000000074</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1479,51 +1609,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731787332.1992517</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731787335.5760393</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787332.1992517.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731787335.5760393.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>124.34</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>124.3</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.04000000000000625</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1531,95 +1667,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731787336.5807421</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731787336.5807421.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731787336.5807421.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>124.18</v>
       </c>
-      <c r="J23" t="n">
-        <v>124.18</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>124.14</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.04000000000000625</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731787340.0198538</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731787341.685549</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787340.0198538.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787341.685549.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>160.4</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>160.6</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1627,51 +1775,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731787342.0111935</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731787344.309963</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787342.0111935.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787344.309963.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>160.94</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>160.66</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1679,51 +1833,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731787347.7359185</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731787349.2252812</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731787347.7359185.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731787349.2252812.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>48.93</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>49.06</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1731,95 +1891,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731787352.8697035</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731787352.8697035.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731787352.8697035.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>48.97</v>
       </c>
-      <c r="J27" t="n">
-        <v>48.97</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>48.845</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731787356.9933212</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731787358.7068381</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731787356.9933212.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731787358.7068381.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1379.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1377.4</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-2.199999999999818</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -1827,95 +1999,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731787362.4949245</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731787362.4949245.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731787362.4949245.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1376.4</v>
       </c>
-      <c r="J29" t="n">
-        <v>1376.4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1375.4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731787366.4566543</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731787367.2617192</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787366.4566543.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787367.2617192.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>58.97</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>59.39</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.4200000000000017</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -1923,51 +2107,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731787367.870682</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731787369.125353</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787367.870682.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787369.125353.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>59.55</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>59.5</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1975,95 +2165,107 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731787371.4160738</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731787371.4160738.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731787371.4160738.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>59.47</v>
       </c>
-      <c r="J32" t="n">
-        <v>59.47</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>59.38</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.08999999999999631</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731787373.734315</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731787376.2733212</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731787373.734315.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731787376.2733212.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>95.98999999999999</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>95.98</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.009999999999990905</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2071,95 +2273,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731787376.8486745</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731787376.8486745.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731787376.8486745.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>95.84999999999999</v>
       </c>
-      <c r="J34" t="n">
-        <v>95.84999999999999</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>95.63</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.2199999999999989</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731787381.5120082</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731787381.6360857</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/SELG1731787381.5120082.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/SELG1731787381.6360857.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>55.59</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>56.12</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.529999999999994</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.95</v>
       </c>
     </row>
@@ -2167,95 +2381,107 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731787386.4249687</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731787386.4249687.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731787386.4249687.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>55.98</v>
       </c>
-      <c r="J36" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>55.96</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.01999999999999602</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731787389.4163356</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731787390.294089</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731787389.4163356.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731787390.294089.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>139.42</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>141.52</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>2.100000000000023</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>1.51</v>
       </c>
     </row>
@@ -2263,51 +2489,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731787391.2809093</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731787392.6868248</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731787391.2809093.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731787392.6868248.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>142.4</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>142.04</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.3600000000000136</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2315,51 +2547,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731787396.9175394</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731787398.7577746</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731787396.9175394.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731787398.7577746.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>19.88</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>19.845</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.03500000000000014</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -2367,51 +2605,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731787399.6288455</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731787402.3139365</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731787399.6288455.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731787402.3139365.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>19.93</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>19.907</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.02299999999999969</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2419,51 +2663,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731787402.6652212</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731787402.8786542</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731787402.6652212.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731787402.8786542.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>19.798</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>19.898</v>
       </c>
-      <c r="K41" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="N41" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -2471,95 +2721,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731787403.269038</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731787403.269038.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731787403.269038.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>19.791</v>
       </c>
-      <c r="J42" t="n">
-        <v>19.791</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>19.761</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731787408.1641197</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731787411.1634262</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731787408.1641197.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731787411.1634262.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>659.25</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>659.4</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2567,139 +2829,157 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731787412.0881803</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731787412.0881803.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731787412.0881803.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>657.9</v>
       </c>
-      <c r="J44" t="n">
-        <v>657.9</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>657</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.8999999999999773</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731787417.4560611</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731787417.4560611.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731787417.4560611.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>154.65</v>
       </c>
-      <c r="J45" t="n">
-        <v>154.65</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>153.97</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.6800000000000068</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731787420.219339</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731787421.4797091</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/FEES1731787420.219339.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/FEES1731787421.4797091.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>0.095</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>0.09488000000000001</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.0001199999999999951</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -2707,51 +2987,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731787422.578458</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731787425.2319908</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/FEES1731787422.578458.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/FEES1731787425.2319908.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>0.09522000000000001</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>0.09526000000000001</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-3.999999999999837e-05</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2759,51 +3045,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731787426.6078792</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731787427.445658</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731787426.6078792.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731787427.445658.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>95.94</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>95.45999999999999</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.480000000000004</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2811,95 +3103,107 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731787429.3029213</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731787429.3029213.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731787429.3029213.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>94.95</v>
       </c>
-      <c r="J49" t="n">
-        <v>94.95</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>94.73</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.2199999999999989</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731787433.0306334</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731787434.140443</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787433.0306334.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787434.140443.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>2887.6</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>2897.3</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>9.700000000000273</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2907,51 +3211,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731787435.3496284</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731787437.9156802</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787435.3496284.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787437.9156802.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>2906.5</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>2898.6</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>7.900000000000091</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2959,95 +3269,107 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731787438.4483538</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731787438.4483538.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731787438.4483538.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>2896.6</v>
       </c>
-      <c r="J52" t="n">
-        <v>2896.6</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>2888</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-8.599999999999909</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731787439.6322246</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731787440.4758184</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731787439.6322246.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731787440.4758184.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>11.884</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>11.9</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.01600000000000001</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3055,44 +3377,50 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731787441.8187342</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731787441.8187342.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731787441.8187342.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>11.914</v>
       </c>
-      <c r="J54" t="n">
-        <v>11.914</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>11.96</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.04600000000000115</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -3153,19 +3481,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08799999999999741</v>
+        <v>0.05799999999999983</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02199999999999935</v>
+        <v>0.01449999999999996</v>
       </c>
       <c r="E2" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -3175,19 +3503,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.599999999999909</v>
+        <v>5.199999999999818</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.399999999999977</v>
+        <v>1.299999999999955</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="F3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -3197,19 +3525,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.5</v>
+        <v>8.5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>13.16666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="F4" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -3219,19 +3547,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.610000000000014</v>
+        <v>-0.009999999999990905</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5366666666666712</v>
+        <v>-0.003333333333330302</v>
       </c>
       <c r="E5" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3241,19 +3569,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1999999999999886</v>
+        <v>-3.500000000000057</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06666666666666288</v>
+        <v>-1.166666666666686</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04</v>
+        <v>-0.71</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="7">
@@ -3263,19 +3591,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4699999999999989</v>
+        <v>0.3800000000000026</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1566666666666663</v>
+        <v>0.1266666666666675</v>
       </c>
       <c r="E7" t="n">
-        <v>0.79</v>
+        <v>0.6400000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8">
@@ -3285,19 +3613,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8699999999999761</v>
+        <v>0.05999999999997385</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.289999999999992</v>
+        <v>0.01999999999999129</v>
       </c>
       <c r="E8" t="n">
-        <v>0.38</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="F8" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
@@ -3307,19 +3635,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.60000000000036</v>
+        <v>9.000000000000455</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>5.866666666666788</v>
+        <v>3.000000000000151</v>
       </c>
       <c r="E9" t="n">
-        <v>0.61</v>
+        <v>0.31</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
@@ -3329,19 +3657,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3600000000000136</v>
+        <v>0.3200000000000074</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1200000000000045</v>
+        <v>0.1066666666666691</v>
       </c>
       <c r="E10" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
@@ -3351,19 +3679,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1300000000000026</v>
+        <v>0.005000000000002558</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06500000000000128</v>
+        <v>0.002500000000001279</v>
       </c>
       <c r="E11" t="n">
-        <v>0.27</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12">
@@ -3373,19 +3701,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.480000000000004</v>
+        <v>0.2600000000000051</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.240000000000002</v>
+        <v>0.1300000000000026</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="F12" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="13">
@@ -3417,19 +3745,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2800000000000011</v>
+        <v>0.1700000000000017</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1400000000000006</v>
+        <v>0.08500000000000085</v>
       </c>
       <c r="E14" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="F14" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="15">
@@ -3461,19 +3789,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01600000000000001</v>
+        <v>-0.03000000000000114</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.008000000000000007</v>
+        <v>-0.01500000000000057</v>
       </c>
       <c r="E16" t="n">
-        <v>0.13</v>
+        <v>-0.26</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="17">
@@ -3483,19 +3811,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.199999999999818</v>
+        <v>-3.199999999999818</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.099999999999909</v>
+        <v>-1.599999999999909</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.16</v>
+        <v>-0.23</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.08</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="18">
@@ -3505,19 +3833,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.529999999999994</v>
+        <v>0.509999999999998</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.264999999999997</v>
+        <v>0.254999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.95</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="19">
@@ -3527,19 +3855,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1499999999999773</v>
+        <v>-1.049999999999955</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.07499999999998863</v>
+        <v>-0.5249999999999773</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.02</v>
+        <v>-0.16</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="20">
@@ -3571,19 +3899,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.009999999999990905</v>
+        <v>-0.210000000000008</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0.004999999999995453</v>
+        <v>-0.105000000000004</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01</v>
+        <v>-0.22</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="22">
@@ -3593,19 +3921,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-0.6800000000000068</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-0.6800000000000068</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.44</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="23">
